--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE71C13-70F3-5642-99A6-36FCF1785D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3CB5E-06A2-A84A-B389-F60D7B8CDDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Week</t>
   </si>
@@ -111,36 +111,15 @@
     <t>[W3: Variability &amp; z-scores](../modules/W3.html)</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 2 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 3 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 5 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 6 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>W6 continued…</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>[W13: Additional Predictors](../modules/W13.html)</t>
   </si>
   <si>
     <t>[W14: Miscellaneous Data](../modules/W14.html)</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; Problem Set 7 due / Opt-out Deadline &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Th: January 23, 2025</t>
   </si>
   <si>
@@ -328,6 +307,45 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 14 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS2 + PS1 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 + PS2 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: March 3, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5 + PS4 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 + PS5 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: April 21, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>M: May 5, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 revision due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due / Opt-out Deadline 3 &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -710,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY49"/>
+  <dimension ref="A1:XEY52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -739,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -750,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -761,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -772,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -8971,7 +8989,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -8982,10 +9000,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
@@ -8993,10 +9011,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9004,7 +9022,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -9015,7 +9033,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -9026,10 +9044,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9037,10 +9055,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9048,7 +9066,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -9059,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -9070,10 +9088,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9081,10 +9099,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9092,7 +9110,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -9103,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9114,10 +9132,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9125,10 +9143,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
@@ -9136,10 +9154,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -9147,10 +9165,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9158,32 +9176,32 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="18">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9191,7 +9209,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
@@ -9199,10 +9217,10 @@
     </row>
     <row r="27" spans="1:3" ht="18">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -9213,32 +9231,32 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="18">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9246,32 +9264,32 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
+    <row r="32" spans="1:3" ht="18">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>89</v>
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="15" customHeight="1">
       <c r="A33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>25</v>
+        <v>83</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9279,10 +9297,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9290,21 +9308,21 @@
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9312,10 +9330,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9323,21 +9341,21 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
       <c r="A39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9345,32 +9363,32 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+    <row r="41" spans="1:3" ht="18">
       <c r="A41">
         <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>93</v>
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -9378,76 +9396,109 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>97</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row r="44" spans="1:3" ht="18">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1">
+    <row r="45" spans="1:3" ht="18">
       <c r="A45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21" customHeight="1">
+    <row r="47" spans="1:3" ht="18" customHeight="1">
       <c r="A47">
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
       <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="21" customHeight="1">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" customHeight="1">
+      <c r="A50">
         <v>16</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>74</v>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18">
-      <c r="A49">
+    <row r="51" spans="1:3" ht="18">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18">
+      <c r="A52">
         <v>17</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>76</v>
+      <c r="B52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Desktop/data-analysis/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF3CB5E-06A2-A84A-B389-F60D7B8CDDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D8786-98B6-FB4E-8347-D3A84E7461F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Week</t>
   </si>
@@ -75,9 +75,6 @@
     <t>W2 continued…</t>
   </si>
   <si>
-    <t>[W5: Loose Ends / Exam 1 review](../modules/W5.html)</t>
-  </si>
-  <si>
     <t>[W4: Correlation &amp; Regression](../modules/W4.html)</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>[W1: Getting started + Statistical Thinking](../modules/W1.html)</t>
   </si>
   <si>
-    <t>[W7: Hypothesis Testing](../modules/W7.html)</t>
-  </si>
-  <si>
     <t>W7 continued...</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>[W12: Loose Ends / Exam 2 review](../modules/W12.html)</t>
   </si>
   <si>
-    <t>[W15: Odds and Ends](../modules/W15.html)</t>
-  </si>
-  <si>
     <t>[W3: Variability &amp; z-scores](../modules/W3.html)</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>[W13: Additional Predictors](../modules/W13.html)</t>
   </si>
   <si>
-    <t>[W14: Miscellaneous Data](../modules/W14.html)</t>
-  </si>
-  <si>
     <t>Th: January 23, 2025</t>
   </si>
   <si>
@@ -252,9 +240,6 @@
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Final Exam&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>[W6: Sampling](../modules/W6.html)</t>
-  </si>
-  <si>
     <t>Su: January 26, 2025</t>
   </si>
   <si>
@@ -267,21 +252,12 @@
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 3 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 4 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Su: February 2, 2025</t>
   </si>
   <si>
     <t>Su: February 9, 2025</t>
   </si>
   <si>
-    <t>Su: March 2, 2025</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 6 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 7 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -315,9 +291,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 + PS2 revision due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 revision due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -346,6 +319,30 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due / Opt-out Deadline 3 &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W7: Sampling and Hypothesis Testing](../modules/W7.html)</t>
+  </si>
+  <si>
+    <t>[W6: Loose Ends / Exam 1 review](../modules/W6.html)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 5 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W5: More Correlation &amp; Regression](../modules/W5.html)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS2 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W14: Repeated Measures](../modules/W14.html)</t>
+  </si>
+  <si>
+    <t>[W15: Miscellaneous Data](../modules/W15.html)</t>
   </si>
 </sst>
 </file>
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -757,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -768,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -779,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -790,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8989,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -9000,10 +8997,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
@@ -9011,10 +9008,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9022,10 +9019,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9033,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -9044,10 +9041,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9055,10 +9052,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9066,10 +9063,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9077,21 +9074,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
+    <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9099,10 +9096,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9110,32 +9107,32 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9143,21 +9140,21 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="18">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -9165,10 +9162,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9176,10 +9173,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9187,10 +9184,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
@@ -9198,10 +9195,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9209,7 +9206,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
@@ -9220,7 +9217,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -9231,7 +9228,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -9242,7 +9239,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -9253,10 +9250,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9264,10 +9261,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9275,10 +9272,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
@@ -9286,10 +9283,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9297,10 +9294,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9308,10 +9305,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9319,7 +9316,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -9330,10 +9327,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9341,10 +9338,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9352,10 +9349,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9363,10 +9360,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -9374,7 +9371,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -9385,10 +9382,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -9396,10 +9393,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
@@ -9407,10 +9404,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9418,7 +9415,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -9429,10 +9426,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1">
@@ -9440,10 +9437,10 @@
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
@@ -9451,10 +9448,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
@@ -9462,10 +9459,10 @@
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1">
@@ -9473,10 +9470,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18">
@@ -9484,10 +9481,10 @@
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9495,10 +9492,10 @@
         <v>17</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D8786-98B6-FB4E-8347-D3A84E7461F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13C243-EC3A-434A-9309-5B5D1C019840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Week</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Su: March 30, 2025</t>
   </si>
   <si>
-    <t>Su: February 16, 2025</t>
-  </si>
-  <si>
     <t>Su: April 20, 2025</t>
   </si>
   <si>
@@ -343,6 +340,12 @@
   </si>
   <si>
     <t>[W15: Miscellaneous Data](../modules/W15.html)</t>
+  </si>
+  <si>
+    <t>M: February 24, 2025</t>
+  </si>
+  <si>
+    <t>Su: February 23, 2025</t>
   </si>
 </sst>
 </file>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9011,7 +9014,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9055,7 +9058,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9088,7 +9091,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9099,7 +9102,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9118,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9129,10 +9132,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9143,7 +9146,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9162,10 +9165,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9176,7 +9179,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9253,7 +9256,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9297,7 +9300,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9330,7 +9333,7 @@
         <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9382,10 +9385,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -9393,10 +9396,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
@@ -9407,7 +9410,7 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9426,10 +9429,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1">
@@ -9440,7 +9443,7 @@
         <v>59</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
@@ -9451,7 +9454,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
@@ -9470,10 +9473,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18">

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13C243-EC3A-434A-9309-5B5D1C019840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD03ACD-5F93-A745-B124-6972D7B8657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="3460" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>W2 continued…</t>
   </si>
   <si>
-    <t>[W4: Correlation &amp; Regression](../modules/W4.html)</t>
-  </si>
-  <si>
     <t>[W2: Summarizing &amp; Fitting models to data](../modules/W2.html)</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>Su: February 23, 2025</t>
+  </si>
+  <si>
+    <t>[W4: Correlation &amp; Regression](../modules/W4.html) &lt;span style="color:red"&gt; | No Class!&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -757,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -790,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -8989,7 +8989,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -9000,10 +9000,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
@@ -9011,10 +9011,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9022,10 +9022,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9033,7 +9033,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -9044,10 +9044,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9055,21 +9055,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
+    <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9077,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -9088,10 +9088,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9099,10 +9099,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9110,10 +9110,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
@@ -9121,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
@@ -9132,10 +9132,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9143,10 +9143,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9154,10 +9154,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
@@ -9165,10 +9165,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9176,10 +9176,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9187,10 +9187,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1">
@@ -9198,10 +9198,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18">
@@ -9209,7 +9209,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
@@ -9220,7 +9220,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -9231,7 +9231,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -9242,7 +9242,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -9253,10 +9253,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18">
@@ -9264,10 +9264,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9275,10 +9275,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1">
@@ -9286,10 +9286,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9297,10 +9297,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9308,10 +9308,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9319,7 +9319,7 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -9330,10 +9330,10 @@
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9341,10 +9341,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9352,10 +9352,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9363,10 +9363,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -9374,7 +9374,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -9385,10 +9385,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18">
@@ -9396,10 +9396,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
@@ -9407,10 +9407,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9418,7 +9418,7 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -9429,10 +9429,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18" customHeight="1">
@@ -9440,10 +9440,10 @@
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18">
@@ -9451,10 +9451,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21" customHeight="1">
@@ -9462,10 +9462,10 @@
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="18" customHeight="1">
@@ -9473,10 +9473,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18">
@@ -9484,10 +9484,10 @@
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9495,10 +9495,10 @@
         <v>17</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD03ACD-5F93-A745-B124-6972D7B8657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1BF843-9170-BF4E-AF18-04C43AF0ECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3460" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -279,9 +279,6 @@
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 14 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS2 + PS1 revision due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS1 due / Opt-out Deadline 1&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -346,6 +343,15 @@
   </si>
   <si>
     <t>[W4: Correlation &amp; Regression](../modules/W4.html) &lt;span style="color:red"&gt; | No Class!&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>W: February 12, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS2 due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS1 revision due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -728,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY52"/>
+  <dimension ref="A1:XEY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9014,7 +9020,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9058,7 +9064,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -9069,7 +9075,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9077,21 +9083,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9099,10 +9105,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9110,43 +9116,43 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="18">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>95</v>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9154,21 +9160,21 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9176,10 +9182,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9187,32 +9193,32 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="18">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="18">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="18">
@@ -9220,7 +9226,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
@@ -9228,10 +9234,10 @@
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -9242,32 +9248,32 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="18">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9275,32 +9281,32 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9308,10 +9314,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9319,21 +9325,21 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
@@ -9341,10 +9347,10 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9352,21 +9358,21 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
       <c r="A40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
@@ -9374,32 +9380,32 @@
         <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+    <row r="42" spans="1:3" ht="18">
       <c r="A42">
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18">
@@ -9407,10 +9413,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9418,86 +9424,97 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46" spans="1:3" ht="18">
       <c r="A46">
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1">
-      <c r="A47">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="18">
+    <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48">
         <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" customHeight="1">
+    <row r="49" spans="1:3" ht="18">
       <c r="A49">
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="21" customHeight="1">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18">
+    <row r="51" spans="1:3" ht="18" customHeight="1">
       <c r="A51">
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
       <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18">
+      <c r="A53">
         <v>17</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>64</v>
       </c>
     </row>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1BF843-9170-BF4E-AF18-04C43AF0ECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92C48F-8C11-8342-8180-79253247FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>Week</t>
   </si>
@@ -207,9 +207,6 @@
     <t>M: February 17, 2025</t>
   </si>
   <si>
-    <t>M: March 24, 2025</t>
-  </si>
-  <si>
     <t>M: March 31, 2025</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 7 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Su: March 9, 2025</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#198bda"&gt; Week 10 Quiz due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS3 revision due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>M: March 3, 2025</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -352,6 +343,18 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS1 revision due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>F: March 7, 2025</t>
+  </si>
+  <si>
+    <t>W: February 26, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; LA: Midterm Review (5-7.30 pm, Kanbar 101)&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>W: March 26, 2025</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +416,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -426,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +455,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY53"/>
+  <dimension ref="A1:XEY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -785,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -9006,10 +9018,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
@@ -9020,7 +9032,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9050,10 +9062,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9064,7 +9076,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -9075,7 +9087,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9083,10 +9095,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9108,7 +9120,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9119,7 +9131,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9138,10 +9150,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9149,10 +9161,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9163,29 +9175,29 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>102</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9196,7 +9208,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9210,26 +9222,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="18">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
+        <v>101</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9237,7 +9249,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -9245,10 +9257,10 @@
     </row>
     <row r="29" spans="1:3" ht="18">
       <c r="A29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -9259,21 +9271,21 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="18">
       <c r="A31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>82</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9287,37 +9299,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+    <row r="34" spans="1:3" ht="18">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9325,10 +9337,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9336,21 +9348,21 @@
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
       <c r="A38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9358,10 +9370,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9369,21 +9381,21 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
@@ -9391,32 +9403,32 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+    <row r="43" spans="1:3" ht="18">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9424,10 +9436,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
@@ -9435,87 +9447,98 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+    <row r="47" spans="1:3" ht="18">
       <c r="A47">
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1">
+    <row r="48" spans="1:3" ht="15" customHeight="1">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18">
+    <row r="49" spans="1:3" ht="18" customHeight="1">
       <c r="A49">
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21" customHeight="1">
+    <row r="50" spans="1:3" ht="18">
       <c r="A50">
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="21" customHeight="1">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>61</v>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18">
+    <row r="52" spans="1:3" ht="18" customHeight="1">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18">
       <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18">
+      <c r="A54">
         <v>17</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92C48F-8C11-8342-8180-79253247FF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C8FBE-E873-3E44-B516-BCD1EC0D9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>Week</t>
   </si>
@@ -84,15 +83,9 @@
     <t>W7 continued...</t>
   </si>
   <si>
-    <t>[W10: Modeling Relationships I](../modules/W10.html)</t>
-  </si>
-  <si>
     <t>W10 continued…</t>
   </si>
   <si>
-    <t>[W11: Modeling Relationships II](../modules/W11.html)</t>
-  </si>
-  <si>
     <t>[W12: Loose Ends / Exam 2 review](../modules/W12.html)</t>
   </si>
   <si>
@@ -228,12 +221,6 @@
     <t>[W16: Last Class / Final Exam review](../modules/W16.html)</t>
   </si>
   <si>
-    <t>Finals week (TBD)</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Final Exam&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Su: January 26, 2025</t>
   </si>
   <si>
@@ -285,21 +272,12 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5 + PS4 revision due&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 + PS5 revision due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>M: April 21, 2025</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 revision due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>M: May 5, 2025</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 revision due &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due / Opt-out Deadline 3 &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -354,7 +332,22 @@
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; LA: Midterm Review (5-7.30 pm, Kanbar 101)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>W: March 26, 2025</t>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 revision due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>[W10: Modeling Relationships](../modules/W10.html)</t>
+  </si>
+  <si>
+    <t>[W11: Special Cases](../modules/W11.html)</t>
+  </si>
+  <si>
+    <t>Th: May 15, 2025</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Final Exam (1.30-3 pm, VAC South) &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -746,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY54"/>
+  <dimension ref="A1:XEY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -775,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -786,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -797,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -808,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -9007,7 +9000,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -9018,10 +9011,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="15" customHeight="1">
@@ -9029,10 +9022,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17" customHeight="1">
@@ -9040,10 +9033,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9051,7 +9044,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -9062,10 +9055,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9073,10 +9066,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -9084,10 +9077,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9095,10 +9088,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9106,7 +9099,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -9117,10 +9110,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9128,10 +9121,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9139,10 +9132,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -9150,10 +9143,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9161,10 +9154,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9172,10 +9165,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34">
@@ -9183,10 +9176,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9194,10 +9187,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18">
@@ -9205,10 +9198,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9216,7 +9209,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -9227,10 +9220,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1">
@@ -9238,10 +9231,10 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9249,7 +9242,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>8</v>
@@ -9260,7 +9253,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -9271,7 +9264,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -9282,7 +9275,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>8</v>
@@ -9293,43 +9286,43 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="18">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="A34">
         <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+    <row r="35" spans="1:3" ht="18">
       <c r="A35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
@@ -9337,10 +9330,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9348,21 +9341,21 @@
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18">
       <c r="A38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9370,10 +9363,10 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18">
@@ -9381,21 +9374,21 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18">
       <c r="A41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18">
@@ -9403,32 +9396,32 @@
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row r="44" spans="1:3" ht="18">
       <c r="A44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9436,10 +9429,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
@@ -9447,115 +9440,90 @@
         <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="A47">
         <v>14</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
+    <row r="48" spans="1:3" ht="18" customHeight="1">
       <c r="A48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1">
+    <row r="49" spans="1:3" ht="18">
       <c r="A49">
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18">
+    <row r="50" spans="1:3" ht="21" customHeight="1">
       <c r="A50">
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21" customHeight="1">
+    <row r="51" spans="1:3" ht="18" customHeight="1">
       <c r="A51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1">
+    <row r="52" spans="1:3" ht="18">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>85</v>
+        <v>49</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18">
       <c r="A53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18">
-      <c r="A54">
-        <v>17</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9161ED-ED40-1C46-91FE-33CF16107FFE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C8FBE-E873-3E44-B516-BCD1EC0D9CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7DB289-F090-8948-AA9D-1A6F89FB2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>M: May 5, 2025</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due / Opt-out Deadline 3 &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>[W7: Sampling and Hypothesis Testing](../modules/W7.html)</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; LA: Midterm Review (5-7.30 pm, Kanbar 101)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 revision due &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -348,6 +342,12 @@
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Final Exam (1.30-3 pm, VAC South) &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due  &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9069,7 +9069,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -9080,7 +9080,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9088,10 +9088,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9113,7 +9113,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9124,7 +9124,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9143,10 +9143,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9154,10 +9154,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9168,7 +9168,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34">
@@ -9176,10 +9176,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9201,7 +9201,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>74</v>
@@ -9231,7 +9231,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>66</v>
@@ -9289,7 +9289,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9333,7 +9333,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9421,7 +9421,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9432,7 +9432,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
@@ -9465,7 +9465,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18">
@@ -9476,7 +9476,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1">
@@ -9498,7 +9498,7 @@
         <v>78</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9517,10 +9517,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7DB289-F090-8948-AA9D-1A6F89FB2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF624B5-CE43-2B4C-95FC-BCF9389B18EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Week</t>
   </si>
@@ -341,13 +341,16 @@
     <t>Th: May 15, 2025</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Final Exam (1.30-3 pm, VAC South) &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / PS5 revision due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Conceptual Exam (1.30-3 pm, VAC South) &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;PS7 revision + Computational Exam Due by 1.30 pm &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY53"/>
+  <dimension ref="A1:XEY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9413,7 +9416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18">
+    <row r="44" spans="1:3" ht="34">
       <c r="A44">
         <v>14</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9498,7 +9501,7 @@
         <v>78</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9512,7 +9515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18">
+    <row r="53" spans="1:3" ht="34">
       <c r="A53">
         <v>17</v>
       </c>
@@ -9520,7 +9523,18 @@
         <v>99</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF624B5-CE43-2B4C-95FC-BCF9389B18EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2554FE-4D66-1543-8CCC-569268651291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,9 +269,6 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS4 due / Opt-out Deadline 2&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5 + PS4 revision due&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>M: April 21, 2025</t>
   </si>
   <si>
@@ -344,13 +341,16 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS7 due  &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / PS5 revision due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;Conceptual Exam (1.30-3 pm, VAC South) &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;span style="color:#DB5C41"&gt;PS7 revision + Computational Exam Due by 1.30 pm &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5 due &lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / PS4 + PS5 revision due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9072,7 +9072,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="34">
@@ -9083,7 +9083,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9091,10 +9091,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -9116,7 +9116,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
@@ -9127,7 +9127,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -9146,10 +9146,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9157,10 +9157,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
@@ -9171,7 +9171,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34">
@@ -9179,10 +9179,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
@@ -9204,7 +9204,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18">
@@ -9223,7 +9223,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>74</v>
@@ -9234,7 +9234,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>66</v>
@@ -9292,7 +9292,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9336,7 +9336,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9358,7 +9358,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9421,10 +9421,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9435,7 +9435,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18">
@@ -9468,7 +9468,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18">
@@ -9479,7 +9479,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21" customHeight="1">
@@ -9498,10 +9498,10 @@
         <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9520,10 +9520,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34">
@@ -9531,10 +9531,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/data_2025_schedule.xlsx
+++ b/articles/course_docs/data_2025_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Documents/data-analysis/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2554FE-4D66-1543-8CCC-569268651291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1993EB6-4DCD-F846-B9C3-65464BFE0597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>&lt;b&gt;&lt;span style="color:#D3CA09"&gt; LA: Midterm Review (5-7.30 pm, Kanbar 101)&lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 revision due &lt;/span&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>[W10: Modeling Relationships](../modules/W10.html)</t>
   </si>
   <si>
@@ -350,7 +347,10 @@
     <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5 due &lt;/span&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / PS4 + PS5 revision due / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS6 due / PS4 / Opt-out Deadline 3&lt;/span&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;span style="color:#8304BA"&gt; PS5+ PS6 revision due &lt;/span&gt;&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9292,7 +9292,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18">
@@ -9336,7 +9336,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
@@ -9358,7 +9358,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18">
@@ -9416,7 +9416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="34">
+    <row r="44" spans="1:3" ht="18">
       <c r="A44">
         <v>14</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18">
@@ -9468,7 +9468,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18">
@@ -9501,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="18">
@@ -9520,10 +9520,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34">
@@ -9531,10 +9531,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
